--- a/sg02/Assets/Resources/Config/Excel/LuaScripts.xlsx
+++ b/sg02/Assets/Resources/Config/Excel/LuaScripts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Path</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,55 +56,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Lua/UI/LuaFunctionHelper.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/UI/SelectTimes/SelectTimesView.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/UI/SelectTimes/SelectTimesControl.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/UI/UINamesConfig.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/Define.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/Test/TestLua.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/GameStates/InternalAffairsState.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/GameStates/LoadingState.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/GameStates/SelectKingState.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/GameStates/SelectTimesState.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/GameStates/StartMenuState.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/GameStates/WorldMapState.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Lua/UI/LoadgameMenu/LoadgameMenuView.lua</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Lua/UI/LuaFunctionHelper.lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lua/UI/SelectTimes/SelectTimesView.lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lua/UI/SelectTimes/SelectTimesControl.lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lua/UI/UINamesConfig.lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lua/Define.lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lua/Test/TestLua.lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lua/GameStates/InternalAffairsState.lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lua/GameStates/LoadingState.lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lua/GameStates/SelectKingState.lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lua/GameStates/SelectTimesState.lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lua/GameStates/StartMenuState.lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lua/GameStates/WorldMapState.lua</t>
+    <t>Lua/UI/HistoryTime/HistoryTimeControl.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/UI/HistoryTime/HistoryTimeView.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/GameLogic/OnMonthPassed.lua</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -550,52 +562,52 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
@@ -630,12 +642,12 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
@@ -645,7 +657,22 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/sg02/Assets/Resources/Config/Excel/LuaScripts.xlsx
+++ b/sg02/Assets/Resources/Config/Excel/LuaScripts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Path</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,11 +112,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Lua/GameLogic/OnMonthPassed.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/GameLogic/OnYearPassed.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Lua/UI/HistoryTime/HistoryTimeView.lua</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Lua/GameLogic/OnMonthPassed.lua</t>
+    <t>Lua/UI/AdviserInstructions/AdviserInstructionsView.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/UI/AdviserInstructions/AdviserInstructionsControl.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/UI/AllInstructions/AllInstructionsView.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/UI/BattleFighting/BattleFightingView.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/UI/BattleReady/BattleReadyView.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/UI/BattleSelect/BattleSelectView.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/UI/CityInstructions/CityInstructionsView.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/UI/DraftInstructions/DraftInstructionsView.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/UI/FightPrepareInstructions/FightPrepareInstructionsView.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/UI/GeneralData/GeneralDataView.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/UI/MajorInstructions/MajorInstructionsView.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/UI/SelectGeneralData/SelectGeneralDataView.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/UI/AllInstructions/AllInstructionsControl.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/UI/BattleFighting/BattleFightingControl.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/UI/BattleReady/BattleReadyControl.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/UI/BattleSelect/BattleSelectControl.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/UI/CityInstructions/CityInstructionsControl.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/UI/DraftInstructions/DraftInstructionsControl.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/UI/FightPrepareInstructions/FightPrepareInstructionsControl.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/UI/GeneralData/GeneralDataControl.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/UI/MajorInstructions/MajorInstructionsControl.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/UI/SelectGeneralData/SelectGeneralDataControl.lua</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:A49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -602,77 +694,192 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/sg02/Assets/Resources/Config/Excel/LuaScripts.xlsx
+++ b/sg02/Assets/Resources/Config/Excel/LuaScripts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Path</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,6 +209,14 @@
   </si>
   <si>
     <t>Lua/UI/SelectGeneralData/SelectGeneralDataControl.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/UI/ForceMap/ForceMapView.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/UI/ForceMap/ForceMapControl.lua</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -260,74 +268,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -347,7 +287,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CBE9CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -626,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A49"/>
+  <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -882,6 +822,16 @@
         <v>48</v>
       </c>
     </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
